--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Cxcr3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H2">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>0.3660177520666667</v>
+        <v>0.19167519965</v>
       </c>
       <c r="R2">
-        <v>3.2941597686</v>
+        <v>1.72507679685</v>
       </c>
       <c r="S2">
-        <v>0.000503469095582736</v>
+        <v>0.000324823836711005</v>
       </c>
       <c r="T2">
-        <v>0.000503469095582736</v>
+        <v>0.000324823836711005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H3">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I3">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J3">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>2.427584392638223</v>
+        <v>19.75868931634911</v>
       </c>
       <c r="R3">
-        <v>21.848259533744</v>
+        <v>177.828203847142</v>
       </c>
       <c r="S3">
-        <v>0.003339219782951174</v>
+        <v>0.03348421331417281</v>
       </c>
       <c r="T3">
-        <v>0.003339219782951174</v>
+        <v>0.03348421331417281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H4">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I4">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J4">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>1.079004800387333</v>
+        <v>0.4319051756133334</v>
       </c>
       <c r="R4">
-        <v>9.711043203486001</v>
+        <v>3.88714658052</v>
       </c>
       <c r="S4">
-        <v>0.00148420552804634</v>
+        <v>0.0007319313948504519</v>
       </c>
       <c r="T4">
-        <v>0.00148420552804634</v>
+        <v>0.0007319313948504517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>229.479935</v>
       </c>
       <c r="I5">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J5">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>61.64595987216666</v>
+        <v>4.985451587875</v>
       </c>
       <c r="R5">
-        <v>554.8136388495</v>
+        <v>44.869064290875</v>
       </c>
       <c r="S5">
-        <v>0.08479598458797245</v>
+        <v>0.00844863349806105</v>
       </c>
       <c r="T5">
-        <v>0.08479598458797245</v>
+        <v>0.00844863349806105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>229.479935</v>
       </c>
       <c r="I6">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J6">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>408.8620543946089</v>
+        <v>513.9214108366339</v>
       </c>
       <c r="R6">
-        <v>3679.758489551481</v>
+        <v>4625.292697529705</v>
       </c>
       <c r="S6">
-        <v>0.5624028003610592</v>
+        <v>0.8709208324327317</v>
       </c>
       <c r="T6">
-        <v>0.5624028003610591</v>
+        <v>0.8709208324327318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>229.479935</v>
       </c>
       <c r="I7">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J7">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>181.7296736318883</v>
+        <v>11.23380775136667</v>
       </c>
       <c r="R7">
-        <v>1635.567062686995</v>
+        <v>101.1042697623</v>
       </c>
       <c r="S7">
-        <v>0.2499749640758616</v>
+        <v>0.01903745785232445</v>
       </c>
       <c r="T7">
-        <v>0.2499749640758616</v>
+        <v>0.01903745785232445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H8">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I8">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J8">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N8">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O8">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P8">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q8">
-        <v>1.041669805866667</v>
+        <v>0.06531619077499999</v>
       </c>
       <c r="R8">
-        <v>9.3750282528</v>
+        <v>0.587845716975</v>
       </c>
       <c r="S8">
-        <v>0.00143285005192866</v>
+        <v>0.0001106885800856055</v>
       </c>
       <c r="T8">
-        <v>0.00143285005192866</v>
+        <v>0.0001106885800856055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H9">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I9">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J9">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N9">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P9">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q9">
-        <v>6.90879431045689</v>
+        <v>6.733068874884109</v>
       </c>
       <c r="R9">
-        <v>62.17914879411201</v>
+        <v>60.59761987395699</v>
       </c>
       <c r="S9">
-        <v>0.009503266995692962</v>
+        <v>0.01141024644175612</v>
       </c>
       <c r="T9">
-        <v>0.00950326699569296</v>
+        <v>0.01141024644175612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H10">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N10">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O10">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P10">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q10">
-        <v>3.070798382325334</v>
+        <v>0.1471781477133333</v>
       </c>
       <c r="R10">
-        <v>27.637185440928</v>
+        <v>1.32460332942</v>
       </c>
       <c r="S10">
-        <v>0.004223981147189456</v>
+        <v>0.0002494165687974228</v>
       </c>
       <c r="T10">
-        <v>0.004223981147189456</v>
+        <v>0.0002494165687974227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H11">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I11">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J11">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N11">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O11">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P11">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q11">
-        <v>4.657767820133333</v>
+        <v>0.153586299625</v>
       </c>
       <c r="R11">
-        <v>41.9199103812</v>
+        <v>1.382276696625</v>
       </c>
       <c r="S11">
-        <v>0.006406908240368008</v>
+        <v>0.0002602761922331901</v>
       </c>
       <c r="T11">
-        <v>0.006406908240368007</v>
+        <v>0.0002602761922331901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H12">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I12">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J12">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N12">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P12">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q12">
-        <v>30.89228432458312</v>
+        <v>15.83232459431055</v>
       </c>
       <c r="R12">
-        <v>278.030558921248</v>
+        <v>142.490921348795</v>
       </c>
       <c r="S12">
-        <v>0.04249332269148985</v>
+        <v>0.0268303694383446</v>
       </c>
       <c r="T12">
-        <v>0.04249332269148984</v>
+        <v>0.0268303694383446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H13">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I13">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J13">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N13">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O13">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P13">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q13">
-        <v>13.73090187193467</v>
+        <v>0.3460787719666667</v>
       </c>
       <c r="R13">
-        <v>123.578116847412</v>
+        <v>3.1147089477</v>
       </c>
       <c r="S13">
-        <v>0.01888729360246737</v>
+        <v>0.0005864850263347342</v>
       </c>
       <c r="T13">
-        <v>0.01888729360246737</v>
+        <v>0.0005864850263347341</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5156633333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.54699</v>
+      </c>
+      <c r="I14">
+        <v>0.006056418514425867</v>
+      </c>
+      <c r="J14">
+        <v>0.006056418514425868</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.2778016666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.833405</v>
-      </c>
-      <c r="I14">
-        <v>0.003258276538670325</v>
-      </c>
-      <c r="J14">
-        <v>0.003258276538670324</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M14">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N14">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O14">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P14">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q14">
-        <v>0.2238803631666667</v>
+        <v>0.03360835775</v>
       </c>
       <c r="R14">
-        <v>2.0149232685</v>
+        <v>0.30247521975</v>
       </c>
       <c r="S14">
-        <v>0.0003079545823278152</v>
+        <v>5.695465939174797E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003079545823278152</v>
+        <v>5.695465939174797E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H15">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I15">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J15">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N15">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P15">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q15">
-        <v>1.484869169248889</v>
+        <v>3.464491496174444</v>
       </c>
       <c r="R15">
-        <v>13.36382252324</v>
+        <v>31.18042346557</v>
       </c>
       <c r="S15">
-        <v>0.002042484916317013</v>
+        <v>0.005871126896410841</v>
       </c>
       <c r="T15">
-        <v>0.002042484916317012</v>
+        <v>0.005871126896410842</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5156633333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.54699</v>
+      </c>
+      <c r="I16">
+        <v>0.006056418514425867</v>
+      </c>
+      <c r="J16">
+        <v>0.006056418514425868</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.2778016666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.833405</v>
-      </c>
-      <c r="I16">
-        <v>0.003258276538670325</v>
-      </c>
-      <c r="J16">
-        <v>0.003258276538670324</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N16">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O16">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P16">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q16">
-        <v>0.6599898097983333</v>
+        <v>0.07573031713333335</v>
       </c>
       <c r="R16">
-        <v>5.939908288185</v>
+        <v>0.6815728542000001</v>
       </c>
       <c r="S16">
-        <v>0.0009078370400254968</v>
+        <v>0.0001283369586232775</v>
       </c>
       <c r="T16">
-        <v>0.0009078370400254968</v>
+        <v>0.0001283369586232774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H17">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I17">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J17">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N17">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O17">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P17">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q17">
-        <v>0.7759879469666667</v>
+        <v>0.119575594875</v>
       </c>
       <c r="R17">
-        <v>6.9838915227</v>
+        <v>1.076180353875</v>
       </c>
       <c r="S17">
-        <v>0.001067396178563635</v>
+        <v>0.000202639692433983</v>
       </c>
       <c r="T17">
-        <v>0.001067396178563634</v>
+        <v>0.000202639692433983</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H18">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I18">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J18">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N18">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P18">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q18">
-        <v>5.146679958267557</v>
+        <v>12.32635746965166</v>
       </c>
       <c r="R18">
-        <v>46.32011962440801</v>
+        <v>110.937217226865</v>
       </c>
       <c r="S18">
-        <v>0.007079422484871168</v>
+        <v>0.0208889555522819</v>
       </c>
       <c r="T18">
-        <v>0.007079422484871166</v>
+        <v>0.0208889555522819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H19">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I19">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J19">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N19">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O19">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P19">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q19">
-        <v>2.287579537036334</v>
+        <v>0.2694418391</v>
       </c>
       <c r="R19">
-        <v>20.588215833327</v>
+        <v>2.4249765519</v>
       </c>
       <c r="S19">
-        <v>0.003146638637285224</v>
+        <v>0.0004566116644550019</v>
       </c>
       <c r="T19">
-        <v>0.003146638637285223</v>
+        <v>0.0004566116644550019</v>
       </c>
     </row>
   </sheetData>
